--- a/DocumentManage/DocumentManage/bin/Debug/Template/ThongKeLoaiBienDong.xlsx
+++ b/DocumentManage/DocumentManage/bin/Debug/Template/ThongKeLoaiBienDong.xlsx
@@ -80,7 +80,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -89,6 +89,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,37 +409,37 @@
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -456,7 +459,19 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
